--- a/Astral Fighter.xlsx
+++ b/Astral Fighter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A405782E-ACDC-4716-BC61-03108AB6C951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473274AE-EC63-432F-9F06-8BCC36DB88E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20832" yWindow="1248" windowWidth="2388" windowHeight="564" xr2:uid="{2056EB75-B9AC-4055-A1CD-F4A501872564}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{2056EB75-B9AC-4055-A1CD-F4A501872564}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Type of Move</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Damage x1,2, attack moves gain INI Bonus like defensive moves. Defensive and magic moves are disabled</t>
+  </si>
+  <si>
+    <t>trip</t>
   </si>
 </sst>
 </file>
@@ -573,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99599853-129E-4BB3-B58E-B7E4033E6B65}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +789,7 @@
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>40</v>
